--- a/计量地理学实验/复习.xlsx
+++ b/计量地理学实验/复习.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F9E2BB-B88F-40B5-B988-9CC677E8B3F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9748C791-2678-46F1-A301-F4591E2ABC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统计分组" sheetId="2" r:id="rId1"/>
     <sheet name="统计指标计算" sheetId="3" r:id="rId2"/>
+    <sheet name="空间布局测度" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>2015年</t>
   </si>
@@ -235,6 +237,103 @@
     <t>峰度系数：测度地理数据在均值附近的集中程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">城镇数
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1(km)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设要在10个居民区内设立一个商业中心，希望居民都很便利。居住区坐标如下，如何做？</t>
+  </si>
+  <si>
+    <t>中国面积(km²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域法 邻近指数R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">城镇数
+</t>
+  </si>
+  <si>
+    <t>rE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻近指数R</t>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民区外接矩形面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民区数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0除外的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最邻近平均距离</t>
+  </si>
+  <si>
+    <t>理想的随机性（普阿松分布型）的最近邻平均距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近邻指数R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -317,12 +416,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -417,14 +522,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -444,6 +543,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -761,7 +874,515 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>居民区分布散点图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>居民区</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>空间布局测度!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>空间布局测度!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9236-4385-B812-B12C5817F17D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>平均中心</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>空间布局测度!$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.5730000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>空间布局测度!$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5619999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9236-4385-B812-B12C5817F17D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="209071088"/>
+        <c:axId val="207677936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="209071088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207677936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="207677936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209071088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1337,6 +1958,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1388,8 +2525,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1835631" cy="192232"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -1646,7 +2783,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -1761,8 +2898,8 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2981201" cy="545662"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="文本框 24">
@@ -1804,6 +2941,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2120,7 +3258,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="文本框 24">
@@ -2263,8 +3401,8 @@
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1330557" cy="504112"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="文本框 26">
@@ -2306,6 +3444,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2421,7 +3560,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2435,7 +3574,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2450,7 +3589,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2463,7 +3602,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2477,7 +3616,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2491,7 +3630,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2506,7 +3645,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2519,7 +3658,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2535,7 +3674,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2549,7 +3688,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2575,7 +3714,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="文本框 26">
@@ -2699,8 +3838,8 @@
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681661" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="文本框 27">
@@ -2742,6 +3881,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2756,7 +3896,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2769,7 +3909,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2783,7 +3923,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2799,7 +3939,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2812,7 +3952,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2826,7 +3966,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2841,7 +3981,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2854,7 +3994,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2868,7 +4008,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2882,7 +4022,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2897,7 +4037,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2910,7 +4050,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2926,7 +4066,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2940,7 +4080,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2954,7 +4094,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2970,7 +4110,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="文本框 27">
@@ -3064,8 +4204,8 @@
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1496115" cy="504112"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="文本框 49">
@@ -3107,6 +4247,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3222,7 +4363,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3236,7 +4377,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3251,7 +4392,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3264,7 +4405,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3278,7 +4419,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3292,7 +4433,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3307,7 +4448,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3320,7 +4461,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3336,7 +4477,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3350,7 +4491,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3372,7 +4513,7 @@
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>-3</m:t>
+                      <m:t>−3</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -3382,7 +4523,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="文本框 49">
@@ -3550,8 +4691,8 @@
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681661" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="文本框 51">
@@ -3593,6 +4734,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3607,7 +4749,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3620,7 +4762,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3634,7 +4776,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3650,7 +4792,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3663,7 +4805,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3677,7 +4819,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3692,7 +4834,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3705,7 +4847,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3719,7 +4861,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3733,7 +4875,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3748,7 +4890,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3761,7 +4903,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3777,7 +4919,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3791,7 +4933,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3805,7 +4947,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3821,7 +4963,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="文本框 51">
@@ -3907,6 +5049,503 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="556114" cy="433067"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A66534-D253-401A-BBCE-A9099348A416}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2786062"/>
+              <a:ext cx="556114" cy="433067"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑟</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:acc>
+                      </m:num>
+                      <m:den>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑟</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐸</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:acc>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A66534-D253-401A-BBCE-A9099348A416}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2786062"/>
+              <a:ext cx="556114" cy="433067"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅=(𝑟_1 ) ̅/(𝑟_𝐸 ) ̅ </a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="930511" cy="495136"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64025C43-E2AC-4B43-9BE9-77B30AD4B2D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2795587"/>
+              <a:ext cx="930511" cy="495136"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>n</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>/</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐴</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64025C43-E2AC-4B43-9BE9-77B30AD4B2D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2795587"/>
+              <a:ext cx="930511" cy="495136"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅=1/(2√(n/𝐴))</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>331870</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97482DD9-8C08-4F78-8685-6E80B881FF45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="0"/>
+          <a:ext cx="3284620" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2161751-B89A-4328-B1A2-AD5F840DD153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4176,7 +5815,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4187,7 +5826,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -4199,7 +5838,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="22">
         <v>26935.759999999998</v>
       </c>
       <c r="C2" t="s">
@@ -4211,7 +5850,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="22">
         <v>52859.17</v>
       </c>
       <c r="C3" t="s">
@@ -4223,85 +5862,85 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="22">
         <v>33275.339999999997</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="22">
         <v>23767.08</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="G5" s="11" t="s">
+      <c r="D5" s="2"/>
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="22">
         <v>34757.160000000003</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <f>ABS(D1-D2)</f>
         <v>29194.78</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <f>D18</f>
         <v>21334.181666666667</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <f>H6+$D$14</f>
         <v>26199.978333333333</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <f>(H6+I6)/2</f>
         <v>23767.08</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <f>SUMPRODUCT(($A$2:$A$32&gt;=H6)*($A$2:$A$32&lt;=I6))</f>
         <v>10</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <f t="shared" ref="L6:L12" si="0">K6/$D$3</f>
         <v>0.32258064516129031</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <f>L6</f>
         <v>0.32258064516129031</v>
       </c>
@@ -4311,37 +5950,37 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="22">
         <v>26415.87</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <f>I6</f>
         <v>26199.978333333333</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <f>H7+$D$14</f>
         <v>31065.774999999998</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <f t="shared" ref="J7:J11" si="1">(H7+I7)/2</f>
         <v>28632.876666666663</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <f t="shared" ref="K7:K12" si="2">SUMPRODUCT(($A$2:$A$32&gt;=H7)*($A$2:$A$32&lt;=I7))</f>
         <v>12</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <f t="shared" si="0"/>
         <v>0.38709677419354838</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <f>M6+K7</f>
         <v>22</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <f>N6+L7</f>
         <v>0.70967741935483875</v>
       </c>
@@ -4351,41 +5990,41 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="22">
         <v>24579.64</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="G8" s="11">
+      <c r="D8" s="2"/>
+      <c r="G8" s="9">
         <v>3</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f>I7</f>
         <v>31065.774999999998</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <f t="shared" ref="I8:I12" si="4">H8+$D$14</f>
         <v>35931.571666666663</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <f t="shared" si="1"/>
         <v>33498.673333333332</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <f t="shared" si="0"/>
         <v>0.16129032258064516</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <f t="shared" ref="M8:M12" si="5">M7+K8</f>
         <v>27</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <f t="shared" ref="N8:N12" si="6">N7+L8</f>
         <v>0.87096774193548387</v>
       </c>
@@ -4395,44 +6034,44 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="22">
         <v>26356.42</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <f>1+3.32*LOG10(D3)</f>
         <v>5.9513208235297848</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>4</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <f t="shared" ref="H9:H12" si="7">I8</f>
         <v>35931.571666666663</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <f t="shared" si="4"/>
         <v>40797.368333333332</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <f t="shared" si="1"/>
         <v>38364.47</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <f t="shared" si="0"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <f t="shared" si="6"/>
         <v>0.90322580645161288</v>
       </c>
@@ -4442,41 +6081,41 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="22">
         <v>26152.16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="G10" s="11">
+      <c r="D10" s="6"/>
+      <c r="G10" s="9">
         <v>5</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <f t="shared" si="7"/>
         <v>40797.368333333332</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="15">
         <f t="shared" si="4"/>
         <v>45663.165000000001</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="15">
         <f t="shared" si="1"/>
         <v>43230.266666666663</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <f t="shared" si="0"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="9">
         <f t="shared" si="6"/>
         <v>0.93548387096774188</v>
       </c>
@@ -4486,42 +6125,42 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="22">
         <v>25575.61</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
         <f>ROUND(D9,0)</f>
         <v>6</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>6</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <f t="shared" si="7"/>
         <v>45663.165000000001</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <f t="shared" si="4"/>
         <v>50528.96166666667</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>48096.063333333339</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <f t="shared" si="6"/>
         <v>0.93548387096774188</v>
       </c>
@@ -4531,37 +6170,37 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="22">
         <v>24202.62</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <v>7</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <f t="shared" si="7"/>
         <v>50528.96166666667</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <f t="shared" si="4"/>
         <v>55394.758333333339</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <f>(H12+I12)/2</f>
         <v>52961.86</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="9">
         <f t="shared" si="0"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="9">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -4571,144 +6210,144 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="22">
         <v>27051.47</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="22">
         <v>28838.07</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <f>D6/D11</f>
         <v>4865.7966666666662</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="22">
         <v>24900.86</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="22">
         <v>37173.480000000003</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="22">
         <v>26500.12</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="22">
         <v>31125.73</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <f>D2-0.5*D14</f>
         <v>21334.181666666667</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="22">
         <v>30594.1</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="22">
         <v>25186.01</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <f>D11+1</f>
         <v>7</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="22">
         <v>24542.35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="22">
         <v>31545.27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="22">
         <v>25827.72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="22">
         <v>26420.21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="22">
         <v>52961.86</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="22">
         <v>26205.25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="22">
         <v>34101.35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="22">
         <v>25456.63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="22">
         <v>26274.66</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="22">
         <v>26373.23</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="22">
         <v>43714.48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="22">
         <v>27238.84</v>
       </c>
     </row>
@@ -4723,8 +6362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8196B8DD-2336-49BC-9E63-D2F1E9C295E6}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4815,34 +6454,34 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4852,96 +6491,96 @@
         <f>MIN(B2:M2)</f>
         <v>12</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>2</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>3</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <v>5</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="16">
         <v>6</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="16">
         <v>7</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="16">
         <v>8</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="16">
         <v>9</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="16">
         <v>10</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="16">
         <v>11</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B6">
         <f>MAX(B2:M2)</f>
         <v>85</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>12</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>83</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>50</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="16">
         <v>35</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <v>55</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="16">
         <v>50</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="16">
         <v>72</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="16">
         <v>40</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="16">
         <v>85</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="16">
         <v>29</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="16">
         <v>65</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="16">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B7">
@@ -4950,7 +6589,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B8">
@@ -5057,431 +6696,1548 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <f>B6-B5</f>
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <f>B2-$B$8</f>
         <v>-42.25</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <f t="shared" ref="C16:M16" si="2">C2-$B$8</f>
         <v>28.75</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <f t="shared" si="2"/>
         <v>-4.25</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <f t="shared" si="2"/>
         <v>-19.25</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <f t="shared" si="2"/>
         <v>-4.25</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <f t="shared" si="2"/>
         <v>17.75</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <f t="shared" si="2"/>
         <v>-14.25</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <f t="shared" si="2"/>
         <v>30.75</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="10">
         <f t="shared" si="2"/>
         <v>-25.25</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="10">
         <f t="shared" si="2"/>
         <v>10.75</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="4">
         <f t="shared" si="2"/>
         <v>20.75</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="4"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <f>B16^2</f>
         <v>1785.0625</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <f t="shared" ref="C20:M20" si="3">C16^2</f>
         <v>826.5625</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <f t="shared" si="3"/>
         <v>18.0625</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <f t="shared" si="3"/>
         <v>370.5625</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <f t="shared" si="3"/>
         <v>0.5625</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9">
         <f t="shared" si="3"/>
         <v>18.0625</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <f t="shared" si="3"/>
         <v>315.0625</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <f t="shared" si="3"/>
         <v>203.0625</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="9">
         <f t="shared" si="3"/>
         <v>945.5625</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="9">
         <f t="shared" si="3"/>
         <v>637.5625</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="9">
         <f t="shared" si="3"/>
         <v>115.5625</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <f t="shared" si="3"/>
         <v>430.5625</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <f>SUM(B20:M20)</f>
         <v>5666.25</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="6"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <f>1/B7*B21</f>
         <v>472.1875</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <f>_xlfn.VAR.P(B2:M2)</f>
         <v>472.1875</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="4"/>
-      <c r="K24" s="3" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="2"/>
+      <c r="K24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="4"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <f>B24^(1/2)</f>
         <v>21.729875747458841</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <f>_xlfn.STDEV.P(B2:M2)</f>
         <v>21.729875747458841</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="8"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="6"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="8"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="6"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <f>(1/(B7-1)*(B21))^(1/2)</f>
         <v>22.696115005957218</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <f>_xlfn.STDEV.S(B2:M2)</f>
         <v>22.696115005957218</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="8"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="6"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E28" s="7"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="8"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="8"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <f>A27/B8</f>
         <v>0.41836156693008697</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="4"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K30" s="7"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="8"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K31" s="7"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="8"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K32" s="7"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="8"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="10">
         <f>SUM(G8:R8)</f>
         <v>-0.26873796650511667</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="6"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="4"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <f>SUM(G10:R10)-3</f>
         <v>-0.88922947141215847</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7E4793-C80A-4C29-800D-16D37CF28AC2}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>1953</v>
+      </c>
+      <c r="B2" s="18">
+        <v>151</v>
+      </c>
+      <c r="C2" s="18">
+        <v>160.31</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9600000</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>1963</v>
+      </c>
+      <c r="B3" s="18">
+        <v>210</v>
+      </c>
+      <c r="C3" s="18">
+        <v>95.96</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>1973</v>
+      </c>
+      <c r="B4" s="18">
+        <v>271</v>
+      </c>
+      <c r="C4" s="18">
+        <v>83.79</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
+        <v>1953</v>
+      </c>
+      <c r="I4" s="9">
+        <v>151</v>
+      </c>
+      <c r="J4" s="9">
+        <f>1/(2*(B2/$E$2)^(1/2))</f>
+        <v>126.07156592626008</v>
+      </c>
+      <c r="K4" s="9">
+        <f>C2/J4</f>
+        <v>1.2715793511581046</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>1978</v>
+      </c>
+      <c r="B5" s="18">
+        <v>302</v>
+      </c>
+      <c r="C5" s="18">
+        <v>81.02</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>1963</v>
+      </c>
+      <c r="I5" s="9">
+        <v>210</v>
+      </c>
+      <c r="J5" s="9">
+        <f>1/(2*(B3/$E$2)^(1/2))</f>
+        <v>106.90449676496975</v>
+      </c>
+      <c r="K5" s="9">
+        <f>C3/J5</f>
+        <v>0.89762360708706856</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>1973</v>
+      </c>
+      <c r="I6" s="9">
+        <v>271</v>
+      </c>
+      <c r="J6" s="9">
+        <f>1/(2*(B4/$E$2)^(1/2))</f>
+        <v>94.106793383291986</v>
+      </c>
+      <c r="K6" s="9">
+        <f>C4/J6</f>
+        <v>0.8903714279024233</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1978</v>
+      </c>
+      <c r="I7" s="9">
+        <v>302</v>
+      </c>
+      <c r="J7" s="9">
+        <f>1/(2*(B5/$E$2)^(1/2))</f>
+        <v>89.146059181265386</v>
+      </c>
+      <c r="K7" s="9">
+        <f>C5/J7</f>
+        <v>0.90884555912065335</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E10" s="3"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>2</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18">
+        <v>4</v>
+      </c>
+      <c r="F13" s="18">
+        <v>5</v>
+      </c>
+      <c r="G13" s="18">
+        <v>6</v>
+      </c>
+      <c r="H13" s="18">
+        <v>7</v>
+      </c>
+      <c r="I13" s="18">
+        <v>8</v>
+      </c>
+      <c r="J13" s="18">
+        <v>9</v>
+      </c>
+      <c r="K13" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="18">
+        <v>3.58</v>
+      </c>
+      <c r="C14" s="18">
+        <v>7.45</v>
+      </c>
+      <c r="D14" s="18">
+        <v>3.21</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6.47</v>
+      </c>
+      <c r="F14" s="18">
+        <v>5.32</v>
+      </c>
+      <c r="G14" s="18">
+        <v>6.54</v>
+      </c>
+      <c r="H14" s="18">
+        <v>7.81</v>
+      </c>
+      <c r="I14" s="18">
+        <v>9.65</v>
+      </c>
+      <c r="J14" s="18">
+        <v>6.78</v>
+      </c>
+      <c r="K14" s="18">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="18">
+        <v>6.89</v>
+      </c>
+      <c r="C15" s="18">
+        <v>6.41</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E15" s="18">
+        <v>4.58</v>
+      </c>
+      <c r="F15" s="18">
+        <v>6.31</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2.97</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6.35</v>
+      </c>
+      <c r="I15" s="18">
+        <v>7.43</v>
+      </c>
+      <c r="J15" s="18">
+        <v>5.98</v>
+      </c>
+      <c r="K15" s="18">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="I18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="9">
+        <f>MAX(B14:K14)</f>
+        <v>9.65</v>
+      </c>
+      <c r="C19" s="9">
+        <f>MIN(B14:K14)</f>
+        <v>3.21</v>
+      </c>
+      <c r="D19" s="6">
+        <f>AVERAGE(B14:K14)</f>
+        <v>6.5730000000000004</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="6">
+        <f>D19</f>
+        <v>6.5730000000000004</v>
+      </c>
+      <c r="I19" s="3">
+        <f>COUNT(B13:K13)</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="10">
+        <f>MAX(B15:K15)</f>
+        <v>7.43</v>
+      </c>
+      <c r="C20" s="10">
+        <f>MIN(B15:K15)</f>
+        <v>2.97</v>
+      </c>
+      <c r="D20" s="4">
+        <f>AVERAGE(B15:K15)</f>
+        <v>5.5619999999999994</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="4">
+        <f>D20</f>
+        <v>5.5619999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <f>(B19-C19)*(B20-C20)</f>
+        <v>28.722399999999997</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>6</v>
+      </c>
+      <c r="H26" s="7">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7">
+        <v>8</v>
+      </c>
+      <c r="J26" s="7">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2">
+        <v>10</v>
+      </c>
+      <c r="N26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>999</v>
+      </c>
+      <c r="C27" s="9">
+        <f>SQRT((INDEX($N$27:$N$36,C$26)-INDEX($N$27:$N$36,$A27))^2+(INDEX($O$27:$O$36,C$26)-INDEX($O$27:$O$36,$A27))^2)</f>
+        <v>3.8996538307906254</v>
+      </c>
+      <c r="D27" s="9">
+        <f>SQRT((INDEX($N$27:$N$36,D$26)-INDEX($N$27:$N$36,$A27))^2+(INDEX($O$27:$O$36,D$26)-INDEX($O$27:$O$36,$A27))^2)</f>
+        <v>2.6856098003991562</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" ref="E27:K27" si="0">SQRT((INDEX($N$27:$N$36,E$26)-INDEX($N$27:$N$36,$A27))^2+(INDEX($O$27:$O$36,E$26)-INDEX($O$27:$O$36,$A27))^2)</f>
+        <v>3.6997567487606529</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8341210428976604</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="0"/>
+        <v>4.9120260585627999</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="0"/>
+        <v>4.264328786573568</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="0"/>
+        <v>6.0939724318378738</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3268754109524452</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8627638533374347</v>
+      </c>
+      <c r="N27">
+        <v>3.58</v>
+      </c>
+      <c r="O27">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28" s="9">
+        <f t="shared" ref="B28:K36" si="1">SQRT((INDEX($N$27:$N$36,B$26)-INDEX($N$27:$N$36,$A28))^2+(INDEX($O$27:$O$36,B$26)-INDEX($O$27:$O$36,$A28))^2)</f>
+        <v>3.8996538307906254</v>
+      </c>
+      <c r="C28" s="9">
+        <v>999</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="1"/>
+        <v>4.7675989764240869</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0758853532890496</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1323461257497573</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5583282591689036</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.3649657518178927</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4249536078036629</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79611556949980555</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4340295807569801</v>
+      </c>
+      <c r="N28">
+        <v>7.45</v>
+      </c>
+      <c r="O28">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="9">
+        <f t="shared" si="1"/>
+        <v>2.6856098003991562</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="1"/>
+        <v>4.7675989764240869</v>
+      </c>
+      <c r="D29" s="9">
+        <v>999</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="1"/>
+        <v>3.2787345119725688</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="1"/>
+        <v>2.9628533544541145</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5604072800734472</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="1"/>
+        <v>5.0650172753900842</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1912168650375161</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9758521099256194</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="1"/>
+        <v>5.7150415571542439</v>
+      </c>
+      <c r="N29">
+        <v>3.21</v>
+      </c>
+      <c r="O29">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6997567487606529</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0758853532890496</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="1"/>
+        <v>3.2787345119725688</v>
+      </c>
+      <c r="E30" s="9">
+        <v>999</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0773540863319369</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6115210206509871</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="1"/>
+        <v>2.2200225224082746</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2702341856155854</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4339107364128361</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4524681445433703</v>
+      </c>
+      <c r="N30">
+        <v>6.47</v>
+      </c>
+      <c r="O30">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8341210428976604</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1323461257497573</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="1"/>
+        <v>2.9628533544541145</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0773540863319369</v>
+      </c>
+      <c r="F31" s="9">
+        <v>999</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="1"/>
+        <v>3.555840266378679</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4903212644154964</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4725048909978842</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4968299836654793</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0429692059178484</v>
+      </c>
+      <c r="N31">
+        <v>5.32</v>
+      </c>
+      <c r="O31">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>6</v>
+      </c>
+      <c r="B32" s="9">
+        <f t="shared" si="1"/>
+        <v>4.9120260585627999</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5583282591689036</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5604072800734472</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6115210206509871</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="1"/>
+        <v>3.555840266378679</v>
+      </c>
+      <c r="G32" s="9">
+        <v>999</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6107201497762182</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4372511437306255</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="1"/>
+        <v>3.019552947043652</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8132543432828818</v>
+      </c>
+      <c r="N32">
+        <v>6.54</v>
+      </c>
+      <c r="O32">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>7</v>
+      </c>
+      <c r="B33" s="9">
+        <f t="shared" si="1"/>
+        <v>4.264328786573568</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="1"/>
+        <v>0.3649657518178927</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="1"/>
+        <v>5.0650172753900842</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="1"/>
+        <v>2.2200225224082746</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4903212644154964</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6107201497762182</v>
+      </c>
+      <c r="H33" s="9">
+        <v>999</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1335416564951348</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="1"/>
+        <v>1.0944404963267751</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1832315497903561</v>
+      </c>
+      <c r="N33">
+        <v>7.81</v>
+      </c>
+      <c r="O33">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>8</v>
+      </c>
+      <c r="B34" s="9">
+        <f t="shared" si="1"/>
+        <v>6.0939724318378738</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4249536078036629</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1912168650375161</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2702341856155854</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4725048909978842</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4372511437306255</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1335416564951348</v>
+      </c>
+      <c r="I34" s="9">
+        <v>999</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="1"/>
+        <v>3.2154937412472129</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0486882425069308</v>
+      </c>
+      <c r="N34">
+        <v>9.65</v>
+      </c>
+      <c r="O34">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>9</v>
+      </c>
+      <c r="B35" s="9">
+        <f t="shared" si="1"/>
+        <v>3.3268754109524452</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79611556949980555</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9758521099256194</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4339107364128361</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4968299836654793</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="1"/>
+        <v>3.019552947043652</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="1"/>
+        <v>1.0944404963267751</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="1"/>
+        <v>3.2154937412472129</v>
+      </c>
+      <c r="J35" s="9">
+        <v>999</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6191028998494885</v>
+      </c>
+      <c r="N35">
+        <v>6.78</v>
+      </c>
+      <c r="O35">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" si="1"/>
+        <v>5.8627638533374347</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4340295807569801</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="1"/>
+        <v>5.7150415571542439</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4524681445433703</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="1"/>
+        <v>4.0429692059178484</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="1"/>
+        <v>2.8132543432828818</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1832315497903561</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="1"/>
+        <v>3.0486882425069308</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="1"/>
+        <v>2.6191028998494885</v>
+      </c>
+      <c r="K36" s="6">
+        <v>999</v>
+      </c>
+      <c r="N36">
+        <v>8.92</v>
+      </c>
+      <c r="O36">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="9">
+        <f>MIN(B27:B36)</f>
+        <v>1.8341210428976604</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" ref="C37:K37" si="2">MIN(C27:C36)</f>
+        <v>0.3649657518178927</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="2"/>
+        <v>2.6856098003991562</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4339107364128361</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4968299836654793</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6115210206509871</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="2"/>
+        <v>0.3649657518178927</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="2"/>
+        <v>2.1335416564951348</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="2"/>
+        <v>0.79611556949980555</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1832315497903561</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <f>AVERAGE(B37:K37)</f>
+        <v>1.4904812863447201</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10">
+        <f>1/(2*SQRT(I19/A24))</f>
+        <v>0.84738421037921163</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10">
+        <f>A41/C41</f>
+        <v>1.7589202962345936</v>
+      </c>
+      <c r="J41" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/计量地理学实验/复习.xlsx
+++ b/计量地理学实验/复习.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9748C791-2678-46F1-A301-F4591E2ABC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD34DD-263F-4FA5-8347-297B2F5E29BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="924" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统计分组" sheetId="2" r:id="rId1"/>
     <sheet name="统计指标计算" sheetId="3" r:id="rId2"/>
     <sheet name="空间布局测度" sheetId="4" r:id="rId3"/>
+    <sheet name="最短路径问题" sheetId="5" r:id="rId4"/>
+    <sheet name="服务点最优区位" sheetId="6" r:id="rId5"/>
+    <sheet name="离散区域分布的测度-空间罗伦兹曲线" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="135">
   <si>
     <t>2015年</t>
   </si>
@@ -334,6 +337,260 @@
     <t>最近邻指数R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>求从结点V1到各个结点的最短路径</t>
+  </si>
+  <si>
+    <t>V1-V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1-V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1-V4</t>
+  </si>
+  <si>
+    <t>V1-V5</t>
+  </si>
+  <si>
+    <t>V1-V6</t>
+  </si>
+  <si>
+    <t>V1-V7</t>
+  </si>
+  <si>
+    <t>V1-V8</t>
+  </si>
+  <si>
+    <t>V1-V9</t>
+  </si>
+  <si>
+    <t>V1-V10</t>
+  </si>
+  <si>
+    <t>V1-V11</t>
+  </si>
+  <si>
+    <t>路径 V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1,v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径 V1,V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V4,V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径 V1,V4,V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V2,V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径 V1,V4,V2,V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V2,V5,V9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径 V1,V4,V2,V5,V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V4,V3,V7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径 V1,V4,V2,V5,V3,V9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V2,V5,V9,V6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V2,V5,V9,V8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V2,V5,V9,V7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V2,V5,V9,V11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径 V1,V4,V2,V5,V3,V9,V7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1,V2,V5,V9,V7,V10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径 V1,V4,V2,V5,V3,V9,V7,V10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径 V1,V4,V2,V5,V3,V9,V7,V10,V6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径 V1,V4,V2,V5,V3,V9,V7,V10,V6,V8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1-V2-V5-V9-V11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某地理区有5个城镇A、B、C、D、E，各城镇的地理位置及正负荷如图所示。现计划在该地区建一工厂，若使产品运往到各城镇的总运输量为最少，问这个工厂建在那个城镇更好？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b纺织业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c服务业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职工总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R(a)</t>
+  </si>
+  <si>
+    <t>R(a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R(b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R(c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R值：变量对于某一地区数值的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按R值大小排列的各地区职工数据及累积表（%）（由大到小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织业累积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职工总数累积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业累积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务业累积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -342,7 +599,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +672,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -557,6 +828,17 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1342,6 +1624,761 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>空间罗伦兹曲线分布图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>农业</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'离散区域分布的测度-空间罗伦兹曲线'!$F$15:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'离散区域分布的测度-空间罗伦兹曲线'!$E$15:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.00000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0C5-4A62-86A1-D301AE460C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>纺织业</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'离散区域分布的测度-空间罗伦兹曲线'!$F$28:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'离散区域分布的测度-空间罗伦兹曲线'!$E$28:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D0C5-4A62-86A1-D301AE460C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>服务业</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'离散区域分布的测度-空间罗伦兹曲线'!$F$41:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'离散区域分布的测度-空间罗伦兹曲线'!$E$41:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D0C5-4A62-86A1-D301AE460C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830533711"/>
+        <c:axId val="1822406719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1830533711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>整个工业部门职工累积百分比</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822406719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1822406719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>选定的工业的工业部门职工累计百分比</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830533711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1383,6 +2420,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1959,6 +3036,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5062,8 +6655,8 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="556114" cy="433067"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -5105,6 +6698,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5218,7 +6812,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -5282,8 +6876,8 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="930511" cy="495136"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -5325,6 +6919,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5410,7 +7005,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -5541,6 +7136,145 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198359</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="图片 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B4F4FC-7536-4436-83AF-0CCD9CDD38F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="190501"/>
+          <a:ext cx="4313158" cy="2047874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2E7636-5657-4BF4-A44A-B41A59267630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="5686425" cy="2178667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80961</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679C6771-C611-425B-9B89-05888467209F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6362,7 +8096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8196B8DD-2336-49BC-9E63-D2F1E9C295E6}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -7130,7 +8864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7E4793-C80A-4C29-800D-16D37CF28AC2}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -8240,4 +9974,2630 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC1D31F-0EA6-481C-A57B-3E16B047AF72}">
+  <dimension ref="A1:AM26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="2"/>
+      <c r="Q14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="2"/>
+      <c r="U14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="2"/>
+      <c r="Y14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="2"/>
+      <c r="AC14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="2"/>
+      <c r="AG14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="2"/>
+      <c r="AK14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="2"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="27">
+        <v>9</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="27">
+        <v>9</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="27">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" s="27">
+        <v>9</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="W15" s="27">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA15" s="27">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE15" s="27">
+        <v>9</v>
+      </c>
+      <c r="AG15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI15" s="27">
+        <v>9</v>
+      </c>
+      <c r="AK15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM15" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="6">
+        <f>8+3</f>
+        <v>11</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="6">
+        <f>8+3</f>
+        <v>11</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="27">
+        <f>8+3</f>
+        <v>11</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="27">
+        <f>8+3</f>
+        <v>11</v>
+      </c>
+      <c r="U16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="W16" s="27">
+        <f>8+3</f>
+        <v>11</v>
+      </c>
+      <c r="Y16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA16" s="27">
+        <f>8+3</f>
+        <v>11</v>
+      </c>
+      <c r="AC16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE16" s="27">
+        <f>8+3</f>
+        <v>11</v>
+      </c>
+      <c r="AG16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI16" s="27">
+        <f>8+3</f>
+        <v>11</v>
+      </c>
+      <c r="AK16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM16" s="27">
+        <f>8+3</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="27">
+        <v>8</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="27">
+        <v>8</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="27">
+        <v>8</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="27">
+        <v>8</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17" s="27">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA17" s="27">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE17" s="27">
+        <v>8</v>
+      </c>
+      <c r="AG17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI17" s="27">
+        <v>8</v>
+      </c>
+      <c r="AK17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM17" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="27">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="27">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="S18" s="27">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="W18" s="27">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="Y18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA18" s="27">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="AC18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE18" s="27">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="AG18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI18" s="27">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+      <c r="AK18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM18" s="27">
+        <f>9+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="W19" s="6">
+        <f>11+6</f>
+        <v>17</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA19" s="6">
+        <f>11+6</f>
+        <v>17</v>
+      </c>
+      <c r="AC19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD19" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE19" s="27">
+        <f>11+6</f>
+        <v>17</v>
+      </c>
+      <c r="AG19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH19" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI19" s="27">
+        <f>11+6</f>
+        <v>17</v>
+      </c>
+      <c r="AK19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL19" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM19" s="27">
+        <f>11+6</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="S20" s="6">
+        <f>11+9</f>
+        <v>20</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="W20" s="27">
+        <f>11+3</f>
+        <v>14</v>
+      </c>
+      <c r="Y20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA20" s="27">
+        <f>11+3</f>
+        <v>14</v>
+      </c>
+      <c r="AC20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE20" s="27">
+        <f>11+3</f>
+        <v>14</v>
+      </c>
+      <c r="AG20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI20" s="27">
+        <f>11+3</f>
+        <v>14</v>
+      </c>
+      <c r="AK20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM20" s="27">
+        <f>11+3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21" s="6">
+        <f>11+7</f>
+        <v>18</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA21" s="6">
+        <f>11+7</f>
+        <v>18</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE21" s="6">
+        <f>11+7</f>
+        <v>18</v>
+      </c>
+      <c r="AG21" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH21" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI21" s="27">
+        <f>11+7</f>
+        <v>18</v>
+      </c>
+      <c r="AK21" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL21" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM21" s="27">
+        <f>11+7</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="6">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="S22" s="27">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="V22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="W22" s="27">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="Y22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA22" s="27">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="AC22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE22" s="27">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="AG22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI22" s="27">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="AK22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM22" s="27">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z23" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="27">
+        <f>14+1</f>
+        <v>15</v>
+      </c>
+      <c r="AC23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD23" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="27">
+        <f>14+1</f>
+        <v>15</v>
+      </c>
+      <c r="AG23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH23" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI23" s="27">
+        <f>14+1</f>
+        <v>15</v>
+      </c>
+      <c r="AK23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL23" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM23" s="27">
+        <f>14+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="W24" s="4">
+        <f>11+10</f>
+        <v>21</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA24" s="4">
+        <f>11+10</f>
+        <v>21</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE24" s="4">
+        <f>11+10</f>
+        <v>21</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI24" s="4">
+        <f>11+10</f>
+        <v>21</v>
+      </c>
+      <c r="AK24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL24" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM24" s="33">
+        <f>11+10</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCE0523-3386-4FC9-BC6D-8F75B06D8B83}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15</v>
+      </c>
+      <c r="D18" s="9">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>48</v>
+      </c>
+      <c r="F18" s="6">
+        <v>63</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f>$I$18*B18+$I$19*B19+$I$20*B20+$I$21*B21+$I$22*B22</f>
+        <v>618</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:O18" si="0">$I$18*C18+$I$19*C19+$I$20*C20+$I$21*C21+$I$22*C22</f>
+        <v>612</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="9">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9">
+        <v>54</v>
+      </c>
+      <c r="F19" s="6">
+        <v>69</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="9">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>42</v>
+      </c>
+      <c r="F20" s="6">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <f>MIN(K18:O18)</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="9">
+        <v>48</v>
+      </c>
+      <c r="C21" s="9">
+        <v>54</v>
+      </c>
+      <c r="D21" s="9">
+        <v>42</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="10">
+        <v>63</v>
+      </c>
+      <c r="C22" s="10">
+        <v>69</v>
+      </c>
+      <c r="D22" s="10">
+        <v>57</v>
+      </c>
+      <c r="E22" s="10">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043D1D7-3291-47CB-9A9B-A77B83051595}">
+  <dimension ref="A1:S51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="20">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20">
+        <v>7</v>
+      </c>
+      <c r="I1" s="20">
+        <v>8</v>
+      </c>
+      <c r="J1" s="20">
+        <v>9</v>
+      </c>
+      <c r="K1" s="20">
+        <v>10</v>
+      </c>
+      <c r="L1" s="20">
+        <v>11</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="20">
+        <v>5.2</v>
+      </c>
+      <c r="C2" s="20">
+        <v>7.8</v>
+      </c>
+      <c r="D2" s="20">
+        <v>7.6</v>
+      </c>
+      <c r="E2" s="20">
+        <v>12.6</v>
+      </c>
+      <c r="F2" s="20">
+        <v>23.2</v>
+      </c>
+      <c r="G2" s="20">
+        <v>11.2</v>
+      </c>
+      <c r="H2" s="20">
+        <v>3.6</v>
+      </c>
+      <c r="I2" s="20">
+        <v>6.9</v>
+      </c>
+      <c r="J2" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="K2" s="20">
+        <v>15.6</v>
+      </c>
+      <c r="L2" s="20">
+        <v>2.1</v>
+      </c>
+      <c r="M2" s="20">
+        <f>SUM(B2:L2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2.6</v>
+      </c>
+      <c r="C3" s="20">
+        <v>22.7</v>
+      </c>
+      <c r="D3" s="20">
+        <v>15.3</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="G3" s="20">
+        <v>2</v>
+      </c>
+      <c r="H3" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I3" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J3" s="20">
+        <v>27.4</v>
+      </c>
+      <c r="K3" s="20">
+        <v>12</v>
+      </c>
+      <c r="L3" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="M3" s="20">
+        <f t="shared" ref="M3:M5" si="0">SUM(B3:L3)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="20">
+        <v>5.2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>7.9</v>
+      </c>
+      <c r="D4" s="20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="F4" s="20">
+        <v>36</v>
+      </c>
+      <c r="G4" s="20">
+        <v>6.6</v>
+      </c>
+      <c r="H4" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I4" s="20">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J4" s="20">
+        <v>11.6</v>
+      </c>
+      <c r="K4" s="20">
+        <v>10</v>
+      </c>
+      <c r="L4" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M4" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="20">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D5" s="20">
+        <v>6</v>
+      </c>
+      <c r="E5" s="20">
+        <v>2.6</v>
+      </c>
+      <c r="F5" s="20">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G5" s="20">
+        <v>5.6</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="I5" s="20">
+        <v>10</v>
+      </c>
+      <c r="J5" s="20">
+        <v>12.6</v>
+      </c>
+      <c r="K5" s="20">
+        <v>9</v>
+      </c>
+      <c r="L5" s="20">
+        <v>2</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="9">
+        <f>B2/B$5</f>
+        <v>0.94545454545454544</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ref="C9:L9" si="1">C2/C$5</f>
+        <v>0.88636363636363624</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8461538461538458</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.688427299703264</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" ref="B10:L11" si="2">B3/B$5</f>
+        <v>0.47272727272727272</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="2"/>
+        <v>2.5795454545454541</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="2"/>
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.19230769230769229</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.12462908011869436</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>2.1746031746031744</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.94545454545454544</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.89772727272727271</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0384615384615385</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0682492581602372</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1785714285714286</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0952380952380951</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.92063492063492058</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4.8461538461538458</v>
+      </c>
+      <c r="C15" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="E15" s="9">
+        <f>C15</f>
+        <v>12.6</v>
+      </c>
+      <c r="F15" s="9">
+        <f>D15</f>
+        <v>2.6</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="E16" s="9">
+        <f>C16+E15</f>
+        <v>23.799999999999997</v>
+      </c>
+      <c r="F16" s="9">
+        <f>D16+F15</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="C17" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="D17" s="9">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" ref="E17:E25" si="3">C17+E16</f>
+        <v>39.4</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" ref="F17:F25" si="4">D17+F16</f>
+        <v>17.2</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="D18" s="9">
+        <v>6</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="4"/>
+        <v>23.2</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="3"/>
+        <v>49.1</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="4"/>
+        <v>25.2</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.94545454545454544</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="3"/>
+        <v>54.300000000000004</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="4"/>
+        <v>30.7</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0.88636363636363624</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="D21" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="3"/>
+        <v>62.1</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="4"/>
+        <v>39.5</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D22" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="3"/>
+        <v>65.7</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="4"/>
+        <v>43.7</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="D23" s="9">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="3"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="4"/>
+        <v>53.7</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0.688427299703264</v>
+      </c>
+      <c r="C24" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="3"/>
+        <v>95.800000000000011</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="4"/>
+        <v>87.4</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="D25" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="3"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="5"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>3.25</v>
+      </c>
+      <c r="C28" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9">
+        <f>C28</f>
+        <v>6.5</v>
+      </c>
+      <c r="F28" s="9">
+        <f>D28</f>
+        <v>2</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2.5795454545454541</v>
+      </c>
+      <c r="C29" s="5">
+        <v>22.7</v>
+      </c>
+      <c r="D29" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E29" s="9">
+        <f>C29+E28</f>
+        <v>29.2</v>
+      </c>
+      <c r="F29" s="9">
+        <f>D29+F28</f>
+        <v>10.8</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="C30" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>6</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" ref="E30:E38" si="5">C30+E29</f>
+        <v>44.5</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" ref="F30:F38" si="6">D30+F29</f>
+        <v>16.8</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2.1746031746031744</v>
+      </c>
+      <c r="C31" s="5">
+        <v>27.4</v>
+      </c>
+      <c r="D31" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="5"/>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="6"/>
+        <v>29.4</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C32" s="5">
+        <v>12</v>
+      </c>
+      <c r="D32" s="9">
+        <v>9</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="5"/>
+        <v>83.9</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="6"/>
+        <v>38.4</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D33" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="5"/>
+        <v>86.100000000000009</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="6"/>
+        <v>42.6</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0.47272727272727272</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="D34" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="5"/>
+        <v>88.7</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="6"/>
+        <v>48.1</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D35" s="9">
+        <v>10</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="5"/>
+        <v>93.3</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="6"/>
+        <v>58.1</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="5"/>
+        <v>95.3</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="6"/>
+        <v>63.7</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>0.19230769230769229</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="5"/>
+        <v>95.8</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="6"/>
+        <v>66.3</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>0.12462908011869436</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="D38" s="9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="5"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>1.1785714285714286</v>
+      </c>
+      <c r="C41" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="D41" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="E41" s="9">
+        <f>C41</f>
+        <v>6.6</v>
+      </c>
+      <c r="F41" s="9">
+        <f>D41</f>
+        <v>5.6</v>
+      </c>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C42" s="5">
+        <v>10</v>
+      </c>
+      <c r="D42" s="9">
+        <v>9</v>
+      </c>
+      <c r="E42" s="9">
+        <f>C42+E41</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F42" s="9">
+        <f>D42+F41</f>
+        <v>14.6</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" ref="E43:E51" si="7">C43+E42</f>
+        <v>18.8</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" ref="F43:F51" si="8">D43+F42</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>1.0952380952380951</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D44" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="7"/>
+        <v>23.4</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="8"/>
+        <v>20.8</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>1.0682492581602372</v>
+      </c>
+      <c r="C45" s="5">
+        <v>36</v>
+      </c>
+      <c r="D45" s="9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="7"/>
+        <v>59.4</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="8"/>
+        <v>54.5</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>1.0384615384615385</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="7"/>
+        <v>62.1</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="8"/>
+        <v>57.1</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0.94545454545454544</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="D47" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" si="7"/>
+        <v>67.3</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="8"/>
+        <v>62.6</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>0.92063492063492058</v>
+      </c>
+      <c r="C48" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="D48" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="7"/>
+        <v>78.899999999999991</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="8"/>
+        <v>75.2</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>0.89772727272727271</v>
+      </c>
+      <c r="C49" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="D49" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="7"/>
+        <v>86.8</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="C50" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D50" s="9">
+        <v>10</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" si="7"/>
+        <v>95.1</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D51" s="10">
+        <v>6</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F51">
+    <sortCondition descending="1" ref="B41"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/计量地理学实验/复习.xlsx
+++ b/计量地理学实验/复习.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD34DD-263F-4FA5-8347-297B2F5E29BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12AEEBB-443E-455D-BE3A-1BC2A79C3FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="924" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" tabRatio="924" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统计分组" sheetId="2" r:id="rId1"/>
@@ -8864,8 +8864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7E4793-C80A-4C29-800D-16D37CF28AC2}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9424,14 +9424,14 @@
         <v>2</v>
       </c>
       <c r="B28" s="9">
-        <f t="shared" ref="B28:K36" si="1">SQRT((INDEX($N$27:$N$36,B$26)-INDEX($N$27:$N$36,$A28))^2+(INDEX($O$27:$O$36,B$26)-INDEX($O$27:$O$36,$A28))^2)</f>
+        <f>SQRT((INDEX($N$27:$N$36,B$26)-INDEX($N$27:$N$36,$A28))^2+(INDEX($O$27:$O$36,B$26)-INDEX($O$27:$O$36,$A28))^2)</f>
         <v>3.8996538307906254</v>
       </c>
       <c r="C28" s="9">
         <v>999</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B28:K36" si="1">SQRT((INDEX($N$27:$N$36,D$26)-INDEX($N$27:$N$36,$A28))^2+(INDEX($O$27:$O$36,D$26)-INDEX($O$27:$O$36,$A28))^2)</f>
         <v>4.7675989764240869</v>
       </c>
       <c r="E28" s="9">
@@ -9474,7 +9474,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="9">
-        <f t="shared" si="1"/>
+        <f>SQRT((INDEX($N$27:$N$36,B$26)-INDEX($N$27:$N$36,$A29))^2+(INDEX($O$27:$O$36,B$26)-INDEX($O$27:$O$36,$A29))^2)</f>
         <v>2.6856098003991562</v>
       </c>
       <c r="C29" s="9">
@@ -9574,7 +9574,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="9">
-        <f t="shared" si="1"/>
+        <f>SQRT((INDEX($N$27:$N$36,B$26)-INDEX($N$27:$N$36,$A31))^2+(INDEX($O$27:$O$36,B$26)-INDEX($O$27:$O$36,$A31))^2)</f>
         <v>1.8341210428976604</v>
       </c>
       <c r="C31" s="9">
@@ -11135,7 +11135,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11360,7 +11360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043D1D7-3291-47CB-9A9B-A77B83051595}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>

--- a/计量地理学实验/复习.xlsx
+++ b/计量地理学实验/复习.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12AEEBB-443E-455D-BE3A-1BC2A79C3FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37291D4-39FF-4726-BB5F-42115B1EB86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" tabRatio="924" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="924" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统计分组" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="最短路径问题" sheetId="5" r:id="rId4"/>
     <sheet name="服务点最优区位" sheetId="6" r:id="rId5"/>
     <sheet name="离散区域分布的测度-空间罗伦兹曲线" sheetId="7" r:id="rId6"/>
+    <sheet name="时间序列" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="139">
   <si>
     <t>2015年</t>
   </si>
@@ -591,6 +592,21 @@
     <t>服务业累积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>流量（立方米/秒）</t>
+  </si>
+  <si>
+    <t>滑动平均（三年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动平均（五年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2379,6 +2395,1058 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>流量趋势图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>流量</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>时间序列!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>时间序列!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E99B-4469-96B7-493A83F0F80F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>三年滑动平均</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>时间序列!$D$2:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4666666666666659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0333333333333323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E99B-4469-96B7-493A83F0F80F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>五年滑动平均</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>时间序列!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4599999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1800000000000015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3199999999999985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E99B-4469-96B7-493A83F0F80F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2084059376"/>
+        <c:axId val="57153104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2084059376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57153104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57153104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2084059376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>时间序列!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>距平</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>时间序列!$H$2:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-0.53793103448275836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.3379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5379310344827593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5379310344827593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5379310344827593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4379310344827587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.1379310344827598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16206896551724093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.3379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.3379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.3379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.3379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.3379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.8379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6620689655172409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A182-4A58-8BB1-C1FD9554F4F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="138832928"/>
+        <c:axId val="57068240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="138832928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57068240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57068240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138832928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2460,6 +3528,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4048,6 +5196,1025 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7283,6 +9450,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF86FE4-AB5B-4B9E-B75A-3676A353A51C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E050385-32F6-4BD2-9CF9-D67D88DEC64F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8864,7 +11108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7E4793-C80A-4C29-800D-16D37CF28AC2}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -12600,4 +14844,663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1897F100-A7AD-4B73-9AE9-8B165B717FBF}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>1940</v>
+      </c>
+      <c r="B2" s="20">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D2" s="5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9">
+        <f>AVERAGE(B2:B6)</f>
+        <v>6.08</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="6">
+        <f>B2-AVERAGE($B$2:$B$30)</f>
+        <v>-0.53793103448275836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>1941</v>
+      </c>
+      <c r="B3" s="20">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D27" si="0">AVERAGE(B3:B5)</f>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9">
+        <f>AVERAGE(B3:B7)</f>
+        <v>5.28</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H30" si="1">B3-AVERAGE($B$2:$B$30)</f>
+        <v>-7.3379310344827591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>1942</v>
+      </c>
+      <c r="B4" s="20">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>5.8666666666666671</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <f>AVERAGE(B4:B8)</f>
+        <v>7.080000000000001</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.3379310344827591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>1943</v>
+      </c>
+      <c r="B5" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4666666666666659</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <f>AVERAGE(B5:B9)</f>
+        <v>7.4599999999999991</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.5379310344827593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>1944</v>
+      </c>
+      <c r="B6" s="20">
+        <v>5.8</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8666666666666671</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <f>AVERAGE(B6:B10)</f>
+        <v>8.1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.5379310344827593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>1945</v>
+      </c>
+      <c r="B7" s="20">
+        <v>5.8</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>8.9</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <f>AVERAGE(B7:B11)</f>
+        <v>7.1800000000000015</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.5379310344827593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>1946</v>
+      </c>
+      <c r="B8" s="20">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>9.6333333333333329</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <f>AVERAGE(B8:B12)</f>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6620689655172409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>1947</v>
+      </c>
+      <c r="B9" s="20">
+        <v>8.9</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0333333333333323</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <f>AVERAGE(B9:B13)</f>
+        <v>9.3199999999999985</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.4379310344827587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>1948</v>
+      </c>
+      <c r="B10" s="20">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5666666666666664</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <f>AVERAGE(B10:B14)</f>
+        <v>11.540000000000001</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.3379310344827591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>1949</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <f>AVERAGE(B11:B15)</f>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>-9.1379310344827598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>1950</v>
+      </c>
+      <c r="B12" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>16.166666666666668</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <f>AVERAGE(B12:B16)</f>
+        <v>13.7</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.16206896551724093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>1951</v>
+      </c>
+      <c r="B13" s="20">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <f>AVERAGE(B13:B17)</f>
+        <v>13</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6620689655172409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>1952</v>
+      </c>
+      <c r="B14" s="20">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <f>AVERAGE(B14:B18)</f>
+        <v>10.6</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>9.6620689655172409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>1953</v>
+      </c>
+      <c r="B15" s="20">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <f>AVERAGE(B15:B19)</f>
+        <v>7.6</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.3379310344827591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>1954</v>
+      </c>
+      <c r="B16" s="20">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
+        <f>AVERAGE(B16:B20)</f>
+        <v>8.4</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>6.6620689655172409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>1955</v>
+      </c>
+      <c r="B17" s="20">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
+        <f>AVERAGE(B17:B21)</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.3379310344827591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>1956</v>
+      </c>
+      <c r="B18" s="20">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
+        <f>AVERAGE(B18:B22)</f>
+        <v>9.9</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.3379310344827591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>1957</v>
+      </c>
+      <c r="B19" s="20">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <f>AVERAGE(B19:B23)</f>
+        <v>12.3</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.3379310344827591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>1958</v>
+      </c>
+      <c r="B20" s="20">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <f>AVERAGE(B20:B24)</f>
+        <v>12.2</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.3379310344827591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>1959</v>
+      </c>
+      <c r="B21" s="20">
+        <v>16.5</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
+        <f>AVERAGE(B21:B25)</f>
+        <v>13.6</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>6.1620689655172409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>1960</v>
+      </c>
+      <c r="B22" s="20">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9">
+        <f>AVERAGE(B22:B26)</f>
+        <v>13.1</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6620689655172409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>1961</v>
+      </c>
+      <c r="B23" s="20">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>12.166666666666666</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9">
+        <f>AVERAGE(B23:B27)</f>
+        <v>12.7</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6620689655172409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>1962</v>
+      </c>
+      <c r="B24" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
+        <f>AVERAGE(B24:B28)</f>
+        <v>12</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.8379310344827591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>1963</v>
+      </c>
+      <c r="B25" s="20">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
+        <f>AVERAGE(B25:B29)</f>
+        <v>14</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>3.6620689655172409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>1964</v>
+      </c>
+      <c r="B26" s="20">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>13.833333333333334</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <f>AVERAGE(B26:B30)</f>
+        <v>14.4</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>3.6620689655172409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>1965</v>
+      </c>
+      <c r="B27" s="20">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6620689655172409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>1966</v>
+      </c>
+      <c r="B28" s="20">
+        <v>14.5</v>
+      </c>
+      <c r="D28" s="5">
+        <f>AVERAGE(B28:B30)</f>
+        <v>15</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="6">
+        <f t="shared" si="1"/>
+        <v>4.1620689655172409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>1967</v>
+      </c>
+      <c r="B29" s="20">
+        <v>14.5</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="6">
+        <f>B29-AVERAGE($B$2:$B$30)</f>
+        <v>4.1620689655172409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>1968</v>
+      </c>
+      <c r="B30" s="20">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="4">
+        <f>B30-AVERAGE($B$2:$B$30)</f>
+        <v>5.6620689655172409</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/计量地理学实验/复习.xlsx
+++ b/计量地理学实验/复习.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37291D4-39FF-4726-BB5F-42115B1EB86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76287605-D5BD-470F-83D7-0FF0CA798ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="924" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="924" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统计分组" sheetId="2" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="服务点最优区位" sheetId="6" r:id="rId5"/>
     <sheet name="离散区域分布的测度-空间罗伦兹曲线" sheetId="7" r:id="rId6"/>
     <sheet name="时间序列" sheetId="8" r:id="rId7"/>
+    <sheet name="统计假设检验" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="187">
   <si>
     <t>2015年</t>
   </si>
@@ -605,6 +606,185 @@
   </si>
   <si>
     <t>距平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个区域方差的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.计算方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.计算F值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.原假设：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.查F分布表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置信度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（自由度=样品数-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F临界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（双侧检验）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.比较F值与F临界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F&lt;F临界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设北京和上海的GPD及人口的变化没有显著差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受原假设，北京和上海的GPD的变化无显著差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受原假设，北京和上海的人口的变化无显著差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河段</t>
+  </si>
+  <si>
+    <t>河段S</t>
+  </si>
+  <si>
+    <t>站名</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>颗粒粒径</t>
+  </si>
+  <si>
+    <t>习题：为判别飞云江河两个河段的泥沙颗粒组成有无显著不同，分别在两段的几个点进行采样分析，试根据分析资料确定是否差异显著。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河段T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.原假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞云江河两个河段的泥沙颗粒组成无显著不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u检验法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河段S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.计算样品数、均值和方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.计算t统计量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|t|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.查找t分布表并比较临界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t0 临界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|t|&gt;t0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝原假设，飞云江河两个河段的泥沙颗粒组成有显著差异</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -855,6 +1035,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9527,6 +9713,566 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2165529" cy="863891"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3488102-8410-4F71-B541-A8FF9536B813}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3986212" y="6319837"/>
+              <a:ext cx="2165529" cy="863891"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̅"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̅"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑠</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                                <m:r>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>+</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑠</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>+</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−2</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:rad>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3488102-8410-4F71-B541-A8FF9536B813}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3986212" y="6319837"/>
+              <a:ext cx="2165529" cy="863891"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡=(𝑥 ̅_1−𝑥 ̅_2)/(√((𝑛_1 𝑠_1^2+𝑛_2 𝑠_2^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/(𝑛_1+𝑛_2−2)) √(1/𝑛_1 +1/𝑛_2 ))</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14850,7 +15596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1897F100-A7AD-4B73-9AE9-8B165B717FBF}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D31" sqref="D31:F33"/>
     </sheetView>
   </sheetViews>
@@ -14891,7 +15637,7 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9">
-        <f>AVERAGE(B2:B6)</f>
+        <f t="shared" ref="F2:F26" si="0">AVERAGE(B2:B6)</f>
         <v>6.08</v>
       </c>
       <c r="G2" s="9"/>
@@ -14908,17 +15654,17 @@
         <v>3</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D27" si="0">AVERAGE(B3:B5)</f>
+        <f t="shared" ref="D3:D27" si="1">AVERAGE(B3:B5)</f>
         <v>4.9333333333333336</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9">
-        <f>AVERAGE(B3:B7)</f>
+        <f t="shared" si="0"/>
         <v>5.28</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H30" si="1">B3-AVERAGE($B$2:$B$30)</f>
+        <f t="shared" ref="H3:H28" si="2">B3-AVERAGE($B$2:$B$30)</f>
         <v>-7.3379310344827591</v>
       </c>
     </row>
@@ -14930,17 +15676,17 @@
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8666666666666671</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <f>AVERAGE(B4:B8)</f>
+        <f t="shared" si="0"/>
         <v>7.080000000000001</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.3379310344827591</v>
       </c>
     </row>
@@ -14952,17 +15698,17 @@
         <v>4.8</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4666666666666659</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <f>AVERAGE(B5:B9)</f>
+        <f t="shared" si="0"/>
         <v>7.4599999999999991</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.5379310344827593</v>
       </c>
     </row>
@@ -14974,17 +15720,17 @@
         <v>5.8</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8666666666666671</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <f>AVERAGE(B6:B10)</f>
+        <f t="shared" si="0"/>
         <v>8.1</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.5379310344827593</v>
       </c>
     </row>
@@ -14996,17 +15742,17 @@
         <v>5.8</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <f>AVERAGE(B7:B11)</f>
+        <f t="shared" si="0"/>
         <v>7.1800000000000015</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.5379310344827593</v>
       </c>
     </row>
@@ -15018,17 +15764,17 @@
         <v>12</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6333333333333329</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <f>AVERAGE(B8:B12)</f>
+        <f t="shared" si="0"/>
         <v>8.1199999999999992</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6620689655172409</v>
       </c>
     </row>
@@ -15040,17 +15786,17 @@
         <v>8.9</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0333333333333323</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
-        <f>AVERAGE(B9:B13)</f>
+        <f t="shared" si="0"/>
         <v>9.3199999999999985</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.4379310344827587</v>
       </c>
     </row>
@@ -15062,17 +15808,17 @@
         <v>8</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5666666666666664</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <f>AVERAGE(B10:B14)</f>
+        <f t="shared" si="0"/>
         <v>11.540000000000001</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.3379310344827591</v>
       </c>
     </row>
@@ -15084,17 +15830,17 @@
         <v>1.2</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
-        <f>AVERAGE(B11:B15)</f>
+        <f t="shared" si="0"/>
         <v>10.540000000000001</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.1379310344827598</v>
       </c>
     </row>
@@ -15106,17 +15852,17 @@
         <v>10.5</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.166666666666668</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
-        <f>AVERAGE(B12:B16)</f>
+        <f t="shared" si="0"/>
         <v>13.7</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16206896551724093</v>
       </c>
     </row>
@@ -15128,17 +15874,17 @@
         <v>18</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9">
-        <f>AVERAGE(B13:B17)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6620689655172409</v>
       </c>
     </row>
@@ -15150,17 +15896,17 @@
         <v>20</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.333333333333334</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9">
-        <f>AVERAGE(B14:B18)</f>
+        <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6620689655172409</v>
       </c>
     </row>
@@ -15172,17 +15918,17 @@
         <v>3</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9">
-        <f>AVERAGE(B15:B19)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.3379310344827591</v>
       </c>
     </row>
@@ -15194,17 +15940,17 @@
         <v>17</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9">
-        <f>AVERAGE(B16:B20)</f>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6620689655172409</v>
       </c>
     </row>
@@ -15216,17 +15962,17 @@
         <v>7</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9">
-        <f>AVERAGE(B17:B21)</f>
+        <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.3379310344827591</v>
       </c>
     </row>
@@ -15238,17 +15984,17 @@
         <v>6</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9">
-        <f>AVERAGE(B18:B22)</f>
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.3379310344827591</v>
       </c>
     </row>
@@ -15260,17 +16006,17 @@
         <v>5</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9">
-        <f>AVERAGE(B19:B23)</f>
+        <f t="shared" si="0"/>
         <v>12.3</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.3379310344827591</v>
       </c>
     </row>
@@ -15282,17 +16028,17 @@
         <v>7</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.833333333333334</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9">
-        <f>AVERAGE(B20:B24)</f>
+        <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.3379310344827591</v>
       </c>
     </row>
@@ -15304,17 +16050,17 @@
         <v>16.5</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9">
-        <f>AVERAGE(B21:B25)</f>
+        <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1620689655172409</v>
       </c>
     </row>
@@ -15326,17 +16072,17 @@
         <v>15</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9">
-        <f>AVERAGE(B22:B26)</f>
+        <f t="shared" si="0"/>
         <v>13.1</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6620689655172409</v>
       </c>
     </row>
@@ -15348,17 +16094,17 @@
         <v>18</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.166666666666666</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9">
-        <f>AVERAGE(B23:B27)</f>
+        <f t="shared" si="0"/>
         <v>12.7</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6620689655172409</v>
       </c>
     </row>
@@ -15370,17 +16116,17 @@
         <v>4.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.833333333333334</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9">
-        <f>AVERAGE(B24:B28)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.8379310344827591</v>
       </c>
     </row>
@@ -15392,17 +16138,17 @@
         <v>14</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9">
-        <f>AVERAGE(B25:B29)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6620689655172409</v>
       </c>
     </row>
@@ -15414,17 +16160,17 @@
         <v>14</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.833333333333334</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9">
-        <f>AVERAGE(B26:B30)</f>
+        <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6620689655172409</v>
       </c>
     </row>
@@ -15436,14 +16182,14 @@
         <v>13</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6620689655172409</v>
       </c>
     </row>
@@ -15462,7 +16208,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1620689655172409</v>
       </c>
     </row>
@@ -15503,4 +16249,741 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024A0ADA-3513-4CC9-9333-75C0927798CB}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>1995</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2462.5700000000002</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1301.3699999999999</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>1996</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2902.2</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1304.43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="9">
+        <f>COUNT(A2:A7)</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="9">
+        <f>COUNT(A10:A15)</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>1997</v>
+      </c>
+      <c r="B4" s="20">
+        <v>3360.21</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1305.46</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>1998</v>
+      </c>
+      <c r="B5" s="20">
+        <v>3688.2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1306.58</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>1999</v>
+      </c>
+      <c r="B6" s="20">
+        <v>4034.96</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1313.12</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="20">
+        <v>4551.1499999999996</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1321.63</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="E8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="9">
+        <f>_xlfn.VAR.S(B2:B7)</f>
+        <v>575936.9538166672</v>
+      </c>
+      <c r="G8" s="9">
+        <f>_xlfn.VAR.S(C2:C7)</f>
+        <v>54.729950000000599</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="9">
+        <f>_xlfn.VAR.S(B10:B15)</f>
+        <v>202522.50176000223</v>
+      </c>
+      <c r="G9" s="9">
+        <f>_xlfn.VAR.S(C10:C15)</f>
+        <v>4085.4496666666701</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>1996</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1615.73</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1184</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>1997</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1810.09</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1217</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>1998</v>
+      </c>
+      <c r="B12" s="20">
+        <v>2011.31</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1223.4000000000001</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="9">
+        <f>F8/F9</f>
+        <v>2.8438171008729536</v>
+      </c>
+      <c r="G12" s="9">
+        <f>G8/G9</f>
+        <v>1.3396309945155907E-2</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>1999</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2174.46</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1249.9000000000001</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2478.7600000000002</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1278</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>2001</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2845.65</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1366.4</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="9">
+        <f>F3-1</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="9">
+        <f>G3-1</f>
+        <v>5</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="9">
+        <f>FINV(F16/2,F15,G15)</f>
+        <v>5.0503290576326485</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="20">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D26" s="20">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E26" s="20">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F26" s="20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I26" s="20">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="5"/>
+      <c r="C31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="9">
+        <f>COUNT(C26:F26)</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="9">
+        <f>AVERAGE(C26:F26)</f>
+        <v>5.6749999999999995E-3</v>
+      </c>
+      <c r="E32" s="9">
+        <f>_xlfn.VAR.S(C26:F26)</f>
+        <v>1.5291666666666663E-6</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="9">
+        <f>COUNT(G26:J26)</f>
+        <v>4</v>
+      </c>
+      <c r="D33" s="9">
+        <f>AVERAGE(G26:J26)</f>
+        <v>8.575000000000001E-3</v>
+      </c>
+      <c r="E33" s="9">
+        <f>_xlfn.VAR.S(G26:J26)</f>
+        <v>3.9891666666666664E-6</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="9">
+        <f>(D32-D33)/(SQRT((C32*E32+C33*E33)/(C32+C33-2))*SQRT(1/C32+1/C33))</f>
+        <v>-2.1382311892179131</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="9">
+        <f>C32+C33-2</f>
+        <v>6</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="9">
+        <f>TINV(C38,C37)</f>
+        <v>1.9431802805153031</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="9">
+        <f>ABS(C35)</f>
+        <v>2.1382311892179131</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B23:J23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/计量地理学实验/复习.xlsx
+++ b/计量地理学实验/复习.xlsx
@@ -3,9 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76287605-D5BD-470F-83D7-0FF0CA798ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56842F8-3CB9-49AD-B81F-D87391DAEE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="924" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="8325" tabRatio="924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="8" xr2:uid="{D94FEF53-5665-447A-A54A-4560CFA21601}"/>
   </bookViews>
   <sheets>
     <sheet name="统计分组" sheetId="2" r:id="rId1"/>
@@ -16,6 +17,7 @@
     <sheet name="离散区域分布的测度-空间罗伦兹曲线" sheetId="7" r:id="rId6"/>
     <sheet name="时间序列" sheetId="8" r:id="rId7"/>
     <sheet name="统计假设检验" sheetId="9" r:id="rId8"/>
+    <sheet name="统计假设检验2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="246">
   <si>
     <t>2015年</t>
   </si>
@@ -785,6 +787,227 @@
   </si>
   <si>
     <t>拒绝原假设，飞云江河两个河段的泥沙颗粒组成有显著差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某地区一年内10次人工降雨试验，得到作业区与对照区降雨量表，问人工降雨效果是否显著？</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>作业区雨量</t>
+  </si>
+  <si>
+    <t>对照区雨量</t>
+  </si>
+  <si>
+    <t>1.提取原假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设人工降雨效果不显著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.计算统计量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业区雨量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对照区雨量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t统计量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.验证统计量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝原假设，人工降雨效果显著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1983年农业产值结构</t>
+  </si>
+  <si>
+    <t>种植业</t>
+  </si>
+  <si>
+    <t>林业</t>
+  </si>
+  <si>
+    <t>牧业</t>
+  </si>
+  <si>
+    <t>副业</t>
+  </si>
+  <si>
+    <t>渔业</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>A县</t>
+  </si>
+  <si>
+    <t>B县</t>
+  </si>
+  <si>
+    <t>分别检验两个县的农业产值结构同全市的农业产值是否显著差异</t>
+  </si>
+  <si>
+    <t>1.提出原假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设1：A县的农业产值结构同全市的农业产值无显著差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设2：B县的农业产值结果同全市的农业产值无显著差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适应性检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全市数据为理论次数，A县数据和B县数据为观测次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X²临界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X²&gt;X²临界值，拒绝原假设，B县的农业产值结构同全市的农业产值差异显著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X²&lt;X²临界值，接收原假设，A县的农业产值结构同全市的农业产值无显著差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降水资料</t>
+  </si>
+  <si>
+    <t>假设该降水资料数据服从正太分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设组数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定组数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.计算统计量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正太分布表φ(u)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nφ(u)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(理论-实际)²/实际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X²&lt;X²临界值，接收原假设，该降水数据服从正太分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +1100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,8 +1119,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -985,11 +1214,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1035,12 +1279,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9723,8 +9980,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2165529" cy="863891"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -9766,6 +10023,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10202,7 +10460,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -10263,6 +10521,552 @@
                 <a:t>)/(𝑛_1+𝑛_2−2)) √(1/𝑛_1 +1/𝑛_2 ))</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>141840</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>172899</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2478371" cy="603691"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2FE14F-6BAF-4FE9-95F0-8CAD94BA5A79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5247240" y="12069624"/>
+              <a:ext cx="2478371" cy="603691"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>组</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>观测次数</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>-</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>理论次数</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>理论次数</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2FE14F-6BAF-4FE9-95F0-8CAD94BA5A79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5247240" y="12069624"/>
+              <a:ext cx="2478371" cy="603691"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑋^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=∑8_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>组</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>观测次数</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>-</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>理论次数</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)〗^2/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>理论次数</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>252411</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3062289" cy="262508"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8078129-D6A0-4633-ACD6-9D75564A9E8B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2995611" y="2871787"/>
+              <a:ext cx="3062289" cy="262508"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑅</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑚</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑆</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>，</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                <a:t>Ri</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                <a:t>为第</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                <a:t>组组下限，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                <a:t>m</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                <a:t>为平均数</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8078129-D6A0-4633-ACD6-9D75564A9E8B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2995611" y="2871787"/>
+              <a:ext cx="3062289" cy="262508"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢=(𝑅_𝑖−𝑚)/𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                <a:t>Ri</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                <a:t>为第</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                <a:t>组组下限，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                <a:t>m</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                <a:t>为平均数</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -10538,9 +11342,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EFE80-9D8D-4976-9A84-7424C14A5469}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11089,6 +11894,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11857,6 +12663,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12973,6 +13780,7 @@
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14127,6 +14935,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -14353,6 +15162,7 @@
     <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15599,6 +16409,7 @@
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D31" sqref="D31:F33"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16253,11 +17064,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024A0ADA-3513-4CC9-9333-75C0927798CB}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16342,7 +17154,7 @@
       <c r="C4" s="20">
         <v>1305.46</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>149</v>
       </c>
       <c r="F4" s="9"/>
@@ -16472,7 +17284,7 @@
       <c r="C10" s="20">
         <v>1184</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>148</v>
       </c>
       <c r="F10" s="9"/>
@@ -16540,7 +17352,7 @@
       <c r="C13" s="20">
         <v>1249.9000000000001</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>151</v>
       </c>
       <c r="F13" s="9"/>
@@ -16632,7 +17444,7 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
         <v>157</v>
       </c>
       <c r="F18" s="9"/>
@@ -16673,17 +17485,17 @@
       <c r="K20" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
@@ -16695,7 +17507,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="35" t="s">
         <v>174</v>
       </c>
       <c r="H24" s="20"/>
@@ -16718,7 +17530,7 @@
       <c r="F25" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="36" t="s">
         <v>169</v>
       </c>
       <c r="H25" s="20" t="s">
@@ -16747,7 +17559,7 @@
       <c r="F26" s="20">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="36">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H26" s="20">
@@ -16773,7 +17585,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>175</v>
       </c>
       <c r="C28" s="9"/>
@@ -16797,7 +17609,7 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>179</v>
       </c>
       <c r="C30" s="9"/>
@@ -16845,7 +17657,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>174</v>
       </c>
@@ -16866,8 +17678,8 @@
       <c r="H33" s="9"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="38" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C34" s="9"/>
@@ -16878,7 +17690,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>181</v>
       </c>
@@ -16893,8 +17705,8 @@
       <c r="H35" s="9"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="38" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="37" t="s">
         <v>183</v>
       </c>
       <c r="C36" s="9"/>
@@ -16905,7 +17717,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>152</v>
       </c>
@@ -16920,7 +17732,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>153</v>
       </c>
@@ -16934,7 +17746,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>184</v>
       </c>
@@ -16949,7 +17761,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>182</v>
       </c>
@@ -16964,7 +17776,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>185</v>
       </c>
@@ -16978,12 +17790,1775 @@
       <c r="H41" s="10"/>
       <c r="I41" s="4"/>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="41">
+        <v>1</v>
+      </c>
+      <c r="C45" s="41">
+        <v>2</v>
+      </c>
+      <c r="D45" s="41">
+        <v>3</v>
+      </c>
+      <c r="E45" s="41">
+        <v>4</v>
+      </c>
+      <c r="F45" s="41">
+        <v>5</v>
+      </c>
+      <c r="G45" s="41">
+        <v>6</v>
+      </c>
+      <c r="H45" s="41">
+        <v>7</v>
+      </c>
+      <c r="I45" s="41">
+        <v>8</v>
+      </c>
+      <c r="J45" s="41">
+        <v>9</v>
+      </c>
+      <c r="K45" s="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="41">
+        <v>7</v>
+      </c>
+      <c r="C46" s="41">
+        <v>3</v>
+      </c>
+      <c r="D46" s="41">
+        <v>2</v>
+      </c>
+      <c r="E46" s="41">
+        <v>4</v>
+      </c>
+      <c r="F46" s="41">
+        <v>5</v>
+      </c>
+      <c r="G46" s="41">
+        <v>6</v>
+      </c>
+      <c r="H46" s="41">
+        <v>7</v>
+      </c>
+      <c r="I46" s="41">
+        <v>5</v>
+      </c>
+      <c r="J46" s="41">
+        <v>6</v>
+      </c>
+      <c r="K46" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="41">
+        <v>3</v>
+      </c>
+      <c r="C47" s="41">
+        <v>6</v>
+      </c>
+      <c r="D47" s="41">
+        <v>2</v>
+      </c>
+      <c r="E47" s="41">
+        <v>2</v>
+      </c>
+      <c r="F47" s="41">
+        <v>1</v>
+      </c>
+      <c r="G47" s="41">
+        <v>4</v>
+      </c>
+      <c r="H47" s="41">
+        <v>2</v>
+      </c>
+      <c r="I47" s="41">
+        <v>6</v>
+      </c>
+      <c r="J47" s="41">
+        <v>3</v>
+      </c>
+      <c r="K47" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="9">
+        <f>COUNT(B46:K46)</f>
+        <v>10</v>
+      </c>
+      <c r="C52" s="9">
+        <f>AVERAGE(B46:K46)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D52" s="6">
+        <f>_xlfn.VAR.S(B46:K46)</f>
+        <v>2.7666666666666675</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="9">
+        <f>COUNT(B47:K47)</f>
+        <v>10</v>
+      </c>
+      <c r="C53" s="9">
+        <f>AVERAGE(B47:K47)</f>
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <f>_xlfn.VAR.S(B47:K47)</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="9">
+        <f>(C52-C53)/(SQRT((B52*D52+B53*D53)/(B52+B53-2))*SQRT(1/B52+1/B53))</f>
+        <v>2.3078625410099107</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="9">
+        <f>ABS(B55)</f>
+        <v>2.3078625410099107</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="9">
+        <f>B52+B53-2</f>
+        <v>18</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="9">
+        <f>TINV(B58,B59)</f>
+        <v>1.7340636066175394</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="H64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="40">
+        <v>31</v>
+      </c>
+      <c r="C66" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="D66" s="40">
+        <v>16.7</v>
+      </c>
+      <c r="E66" s="40">
+        <v>47.4</v>
+      </c>
+      <c r="F66" s="40">
+        <v>4.7</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="40">
+        <v>26.5</v>
+      </c>
+      <c r="C67" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="D67" s="40">
+        <v>20.2</v>
+      </c>
+      <c r="E67" s="40">
+        <v>52.5</v>
+      </c>
+      <c r="F67" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="40">
+        <v>46.3</v>
+      </c>
+      <c r="C68" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="D68" s="40">
+        <v>15.6</v>
+      </c>
+      <c r="E68" s="40">
+        <v>34</v>
+      </c>
+      <c r="F68" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="9">
+        <f>(B67-B66)^2/B66</f>
+        <v>0.65322580645161288</v>
+      </c>
+      <c r="C78" s="9">
+        <f>(C67-C66)^2/C66</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" ref="C78:F78" si="0">(D67-D66)^2/D66</f>
+        <v>0.73353293413173659</v>
+      </c>
+      <c r="E78" s="9">
+        <f t="shared" si="0"/>
+        <v>0.54873417721519024</v>
+      </c>
+      <c r="F78" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5765957446808523</v>
+      </c>
+      <c r="G78" s="9">
+        <f>SUM(B78:F78)</f>
+        <v>5.5120886624793926</v>
+      </c>
+      <c r="H78" s="9">
+        <f>COUNT(B67:F67)</f>
+        <v>5</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" s="9">
+        <f>(B68-B66)^2/B66</f>
+        <v>7.5512903225806429</v>
+      </c>
+      <c r="C79" s="9">
+        <f t="shared" ref="C79:F79" si="1">(C68-C66)^2/C66</f>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="D79" s="9">
+        <f t="shared" si="1"/>
+        <v>7.2455089820359239E-2</v>
+      </c>
+      <c r="E79" s="9">
+        <f t="shared" si="1"/>
+        <v>3.7881856540084384</v>
+      </c>
+      <c r="F79" s="9">
+        <f t="shared" si="1"/>
+        <v>0.30638297872340431</v>
+      </c>
+      <c r="G79" s="9">
+        <f>SUM(B79:F79)</f>
+        <v>12.518314045132843</v>
+      </c>
+      <c r="H79" s="9">
+        <f>COUNT(B68:F68)</f>
+        <v>5</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="9">
+        <f>H78-1</f>
+        <v>4</v>
+      </c>
+      <c r="C82" s="9">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="D82" s="9">
+        <v>9.4879999999999995</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="9">
+        <f>H79-1</f>
+        <v>4</v>
+      </c>
+      <c r="C83" s="9">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="D83" s="9">
+        <v>9.4879999999999995</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B23:J23"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A70:F70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E891E081-82A3-47B4-A744-2C4D3596ECAA}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="1">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>1101.9000000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>947.1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>1008.6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <f>COUNT(A2:A101)</f>
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>1115.8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <f>MAX(A2:A101)</f>
+        <v>1806.3</v>
+      </c>
+      <c r="G5">
+        <f>D11</f>
+        <v>640.41875000000005</v>
+      </c>
+      <c r="H5">
+        <f>G5+$D$9</f>
+        <v>777.58125000000007</v>
+      </c>
+      <c r="I5">
+        <f>SUMPRODUCT(($A$2:$A$101&gt;=G5)*($A$2:$A$101&lt;H5))</f>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>I5/$D$4</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>1015.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <f>MIN(A2:A101)</f>
+        <v>709</v>
+      </c>
+      <c r="G6">
+        <f>H5</f>
+        <v>777.58125000000007</v>
+      </c>
+      <c r="H6">
+        <f>G6+$D$9</f>
+        <v>914.74375000000009</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I13" si="0">SUMPRODUCT(($A$2:$A$101&gt;=G6)*($A$2:$A$101&lt;H6))</f>
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J13" si="1">I6/$D$4</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>1143.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7">
+        <f>D5-D6</f>
+        <v>1097.3</v>
+      </c>
+      <c r="G7">
+        <f>H6</f>
+        <v>914.74375000000009</v>
+      </c>
+      <c r="H7">
+        <f>G7+$D$9</f>
+        <v>1051.90625</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>1140.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8">
+        <f>ROUND(1+3.32*LOG10(D4),0)</f>
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f>H7</f>
+        <v>1051.90625</v>
+      </c>
+      <c r="H8">
+        <f>G8+$D$9</f>
+        <v>1189.0687499999999</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>1402.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9">
+        <f>D7/D8</f>
+        <v>137.16249999999999</v>
+      </c>
+      <c r="G9">
+        <f>H8</f>
+        <v>1189.0687499999999</v>
+      </c>
+      <c r="H9">
+        <f>G9+$D$9</f>
+        <v>1326.2312499999998</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>1197.0999999999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10">
+        <f>D8+1</f>
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <f>H9</f>
+        <v>1326.2312499999998</v>
+      </c>
+      <c r="H10">
+        <f>G10+$D$9</f>
+        <v>1463.3937499999997</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>1107.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <f>D6-0.5*D9</f>
+        <v>640.41875000000005</v>
+      </c>
+      <c r="G11">
+        <f>H10</f>
+        <v>1463.3937499999997</v>
+      </c>
+      <c r="H11">
+        <f>G11+$D$9</f>
+        <v>1600.5562499999996</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>1340.2</v>
+      </c>
+      <c r="G12">
+        <f>H11</f>
+        <v>1600.5562499999996</v>
+      </c>
+      <c r="H12">
+        <f>G12+$D$9</f>
+        <v>1737.7187499999995</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>1416</v>
+      </c>
+      <c r="G13">
+        <f>H12</f>
+        <v>1737.7187499999995</v>
+      </c>
+      <c r="H13">
+        <f>G13+$D$9</f>
+        <v>1874.8812499999995</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>1063.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>1217.5</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>1507.1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(A2:A101)</f>
+        <v>1140.4879999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>1602</v>
+      </c>
+      <c r="C17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17">
+        <f>_xlfn.STDEV.S(A2:A101)</f>
+        <v>203.54666567416996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>1659.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
+        <v>1256.0999999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>1143</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>(G5-$D$16)/$D$17</f>
+        <v>-2.456779374615214</v>
+      </c>
+      <c r="E20">
+        <f>NORMSDIST(D20)</f>
+        <v>7.0094375989241961E-3</v>
+      </c>
+      <c r="F20">
+        <f>E21-E20</f>
+        <v>3.0290494272639044E-2</v>
+      </c>
+      <c r="G20">
+        <f>$D$4*F20</f>
+        <v>3.0290494272639044</v>
+      </c>
+      <c r="H20">
+        <f>I5</f>
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f>(G20-H20)^2/H20</f>
+        <v>0.52947136187608479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
+        <v>911.4</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D29" si="2">(G6-$D$16)/$D$17</f>
+        <v>-1.7829167026539612</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E29" si="3">NORMSDIST(D21)</f>
+        <v>3.729993187156324E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F28" si="4">E22-E21</f>
+        <v>9.6403505192732164E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G28" si="5">$D$4*F21</f>
+        <v>9.6403505192732162</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H28" si="6">I6</f>
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I28" si="7">(G21-H21)^2/H21</f>
+        <v>0.46399547265784835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>1331</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>-1.1090540306927081</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0.13370343706429541</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>0.19800833011929644</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>19.800833011929644</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>0.21983342915538373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>709</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>-0.4351913587314557</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0.33171176718359185</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>0.26260800147241892</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>26.260800147241891</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>6.3584680451406986E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>1004.9</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.23867131322979673</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.59431976865601077</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>0.22493638753510892</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>22.493638753510893</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>9.4546841871842272E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>1320.7</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.91253398519104911</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.81925615619111969</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>0.12441916467887881</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>12.441916467887882</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>2.4663277384616951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>1159.5999999999999</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>1.5863966571523016</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.9436753208699985</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>4.4422098837048285E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>4.4422098837048285</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>4.8887395311559487E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>951.4</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2.2602593291135542</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.98809741970704679</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>1.0230116780438392E-2</v>
+      </c>
+      <c r="G27">
+        <f>$D$4*F27</f>
+        <v>1.0230116780438392</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f>(G27-H27)^2/H27</f>
+        <v>0.47725309061935745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>942.7</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>2.9341220010748064</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.99832753648748518</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>1.5181711551578436E-3</v>
+      </c>
+      <c r="G28">
+        <f>$D$4*F28</f>
+        <v>0.15181711551578436</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f>(G28-H28)^2/H28</f>
+        <v>0.71941420553196433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
+        <v>1285.9000000000001</v>
+      </c>
+      <c r="D29">
+        <f>(H13-$D$16)/$D$17</f>
+        <v>3.607984673036059</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.99984570764264302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>1018.8</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>901.7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31">
+        <f>SUM(I20:I28)</f>
+        <v>5.0833142159371425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
+        <v>947.8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32">
+        <f>COUNT(C20:C28)-2-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
+        <v>1085</v>
+      </c>
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
+        <v>1147.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34">
+        <v>12.592000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
+        <v>1086.2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>1078.0999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
+        <v>1021.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
+        <v>1002.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
+        <v>1123.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
+        <v>984.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
+        <v>1243.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>1806.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
+        <v>1184.4000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
+        <v>1022.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
+        <v>1203.4000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
+        <v>986.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>859.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="18">
+        <v>910.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="18">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18">
+        <v>909.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="18">
+        <v>1588.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="18">
+        <v>1113.4000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
+        <v>1016.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="18">
+        <v>1330.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
+        <v>794.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="18">
+        <v>870.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="18">
+        <v>1062.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
+        <v>1030.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18">
+        <v>769.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="18">
+        <v>1204.9000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="18">
+        <v>1031.5999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="18">
+        <v>1439.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="18">
+        <v>1269.9000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="18">
+        <v>1131.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="18">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18">
+        <v>1208.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="18">
+        <v>1287.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="18">
+        <v>1124.4000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="18">
+        <v>1008.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="18">
+        <v>1170.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="18">
+        <v>1105.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18">
+        <v>1236.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="18">
+        <v>1049.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18">
+        <v>1170.5999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18">
+        <v>1025.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18">
+        <v>1305.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18">
+        <v>811.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="18">
+        <v>1206.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18">
+        <v>975.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="18">
+        <v>849.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18">
+        <v>1088.0999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="18">
+        <v>1318.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="18">
+        <v>1161.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18">
+        <v>1264.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="18">
+        <v>1167.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18">
+        <v>820.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="18">
+        <v>1271.4000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="18">
+        <v>1462.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="18">
+        <v>1233.4000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18">
+        <v>1288.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="18">
+        <v>1191.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="18">
+        <v>791.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18">
+        <v>1196.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="18">
+        <v>1255.9000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="18">
+        <v>1217.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="18">
+        <v>1184.0999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>